--- a/Projeto_4bim/NOTASFINAISALUNOS.xlsx
+++ b/Projeto_4bim/NOTASFINAISALUNOS.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,6 +755,166 @@
         <v>4</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>50230552</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>thiago</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>54023320</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E14" t="n">
+        <v>42</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>12</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>50230552</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>thiago</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>thiago</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="n">
+        <v>5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>reprovado</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Projeto_4bim/NOTASFINAISALUNOS.xlsx
+++ b/Projeto_4bim/NOTASFINAISALUNOS.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -915,6 +915,198 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>50230222</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>dudu</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>EXAME FINAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>502366</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>samuel</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>APROVADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>54321</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>curzin</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>8</v>
+      </c>
+      <c r="D20" t="n">
+        <v>8</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>APROVADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>9090</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>andersoi</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>APROVADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>50230333</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>valenthina</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>10</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>APROVADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>5023044</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>cassia</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>5</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>EXAME FINAL</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Projeto_4bim/NOTASFINAISALUNOS.xlsx
+++ b/Projeto_4bim/NOTASFINAISALUNOS.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,6 +1107,289 @@
         </is>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>50230552</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20340242</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>thiago</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>REPROVADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>50230552</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>thiago</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>7</v>
+      </c>
+      <c r="D26" t="n">
+        <v>7</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>APROVADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>50230552</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>thiago</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>7</v>
+      </c>
+      <c r="D27" t="n">
+        <v>7</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>7</v>
+      </c>
+      <c r="G27" t="n">
+        <v>7</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>APROVADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>50230552</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>thiago</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>7</v>
+      </c>
+      <c r="D28" t="n">
+        <v>7</v>
+      </c>
+      <c r="E28" t="n">
+        <v>7</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7</v>
+      </c>
+      <c r="G28" t="n">
+        <v>7</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>APROVADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>50230552</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>thiago</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>7</v>
+      </c>
+      <c r="D29" t="n">
+        <v>7</v>
+      </c>
+      <c r="E29" t="n">
+        <v>7</v>
+      </c>
+      <c r="F29" t="n">
+        <v>7</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>APROVADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>50230663</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>hector</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+      <c r="D30" t="n">
+        <v>8</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7</v>
+      </c>
+      <c r="F30" t="n">
+        <v>7</v>
+      </c>
+      <c r="G30" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>APROVADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>12345690</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>5</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>EXAME FINAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>50230666</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>heitu</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="n">
+        <v>4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>EXAME FINAL</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
